--- a/templates/PL-BJ-Lamp_ba.xlsx
+++ b/templates/PL-BJ-Lamp_ba.xlsx
@@ -570,9 +570,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>

--- a/templates/PL-BJ-Lamp_ba.xlsx
+++ b/templates/PL-BJ-Lamp_ba.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="9690" windowHeight="6495"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t xml:space="preserve">                         Lampiran :</t>
   </si>
@@ -53,6 +53,15 @@
   </si>
   <si>
     <t>JUMLAH</t>
+  </si>
+  <si>
+    <t>1 berkas</t>
+  </si>
+  <si>
+    <t>#nomor#</t>
+  </si>
+  <si>
+    <t>#tanggal#</t>
   </si>
 </sst>
 </file>
@@ -570,7 +579,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -585,6 +596,9 @@
       <c r="C1" t="s">
         <v>0</v>
       </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C2" s="5" t="s">
@@ -595,10 +609,16 @@
       <c r="C3" t="s">
         <v>2</v>
       </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
         <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>

--- a/templates/PL-BJ-Lamp_ba.xlsx
+++ b/templates/PL-BJ-Lamp_ba.xlsx
@@ -8,21 +8,6 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
-    <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
-    <sheet name="Sheet7" sheetId="7" r:id="rId7"/>
-    <sheet name="Sheet8" sheetId="8" r:id="rId8"/>
-    <sheet name="Sheet9" sheetId="9" r:id="rId9"/>
-    <sheet name="Sheet10" sheetId="10" r:id="rId10"/>
-    <sheet name="Sheet11" sheetId="11" r:id="rId11"/>
-    <sheet name="Sheet12" sheetId="12" r:id="rId12"/>
-    <sheet name="Sheet13" sheetId="13" r:id="rId13"/>
-    <sheet name="Sheet14" sheetId="14" r:id="rId14"/>
-    <sheet name="Sheet15" sheetId="15" r:id="rId15"/>
-    <sheet name="Sheet16" sheetId="16" r:id="rId16"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -579,7 +564,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
@@ -1056,259 +1041,4 @@
   <pageSetup paperSize="9" scale="80" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <printOptions gridLines="1" gridLinesSet="0"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;A</oddHeader>
-    <oddFooter>Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <printOptions gridLines="1" gridLinesSet="0"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;A</oddHeader>
-    <oddFooter>Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <printOptions gridLines="1" gridLinesSet="0"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;A</oddHeader>
-    <oddFooter>Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <printOptions gridLines="1" gridLinesSet="0"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;A</oddHeader>
-    <oddFooter>Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <printOptions gridLines="1" gridLinesSet="0"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;A</oddHeader>
-    <oddFooter>Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <printOptions gridLines="1" gridLinesSet="0"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;A</oddHeader>
-    <oddFooter>Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <printOptions gridLines="1" gridLinesSet="0"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;A</oddHeader>
-    <oddFooter>Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <printOptions gridLines="1" gridLinesSet="0"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;A</oddHeader>
-    <oddFooter>Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <printOptions gridLines="1" gridLinesSet="0"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;A</oddHeader>
-    <oddFooter>Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <printOptions gridLines="1" gridLinesSet="0"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;A</oddHeader>
-    <oddFooter>Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <printOptions gridLines="1" gridLinesSet="0"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;A</oddHeader>
-    <oddFooter>Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <printOptions gridLines="1" gridLinesSet="0"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;A</oddHeader>
-    <oddFooter>Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <printOptions gridLines="1" gridLinesSet="0"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;A</oddHeader>
-    <oddFooter>Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <printOptions gridLines="1" gridLinesSet="0"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;A</oddHeader>
-    <oddFooter>Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <printOptions gridLines="1" gridLinesSet="0"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;A</oddHeader>
-    <oddFooter>Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
 </file>